--- a/data/trans_orig/P25C$cursos_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25C$cursos_2023-Estudios-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5671</v>
+        <v>5233</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005702259748988752</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03220012535326963</v>
+        <v>0.02971035838548008</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,16 +765,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2594</v>
+        <v>3629</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.01293267054964029</v>
+        <v>0.01293267054964028</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05513482705416885</v>
+        <v>0.07712920613043789</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5634</v>
+        <v>5657</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.007226664021572773</v>
+        <v>0.007226664021572774</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02524418372318971</v>
+        <v>0.02534795729530565</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6310</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2306</v>
+        <v>2573</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13385</v>
+        <v>13245</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03583040985953282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01309094877899528</v>
+        <v>0.01460774201866215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0759969776764174</v>
+        <v>0.0752050157515676</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3503</v>
+        <v>2818</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01423470338846372</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07444825280470417</v>
+        <v>0.05989925245623209</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -854,19 +854,19 @@
         <v>6980</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3147</v>
+        <v>2972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14213</v>
+        <v>14276</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03127733699526325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01410287698208234</v>
+        <v>0.01331794939069014</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06368444078813972</v>
+        <v>0.06396748999698523</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4033</v>
+        <v>4179</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003798251810761737</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02289997411570506</v>
+        <v>0.02372683584027033</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2750</v>
+        <v>3443</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01372304725667973</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05844718908633207</v>
+        <v>0.07317226826389862</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -928,16 +928,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4615</v>
+        <v>4077</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.005890719444954319</v>
+        <v>0.00589071944495432</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02067859371088123</v>
+        <v>0.01826799896484741</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>5575</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2422</v>
+        <v>2884</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10587</v>
+        <v>10475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03165397635699767</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01375458739350551</v>
+        <v>0.01637577724884564</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06011514152188275</v>
+        <v>0.0594753452405114</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>5575</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2649</v>
+        <v>2821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10449</v>
+        <v>10465</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02498029513289176</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01186800281705291</v>
+        <v>0.01264099403432718</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04681952383027249</v>
+        <v>0.04689163483042006</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>159165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>150223</v>
+        <v>150659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>165193</v>
+        <v>165331</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9037340807913693</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8529631499620806</v>
+        <v>0.8554382269617952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.937960255866426</v>
+        <v>0.9387486721322957</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>69</v>
@@ -1038,19 +1038,19 @@
         <v>44234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40776</v>
+        <v>40679</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46012</v>
+        <v>45942</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9401115760921001</v>
+        <v>0.9401115760920999</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.866614534580058</v>
+        <v>0.864562089589613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9778987544136432</v>
+        <v>0.9764111269577648</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>282</v>
@@ -1059,19 +1059,19 @@
         <v>203399</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>194076</v>
+        <v>194006</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>209913</v>
+        <v>209950</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9114036324657143</v>
+        <v>0.9114036324657144</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.869629929619878</v>
+        <v>0.8693153452868529</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9405927512347335</v>
+        <v>0.9407604014079776</v>
       </c>
     </row>
     <row r="9">
@@ -1088,19 +1088,19 @@
         <v>4231</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9395</v>
+        <v>9497</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02402428237211789</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008709846785338956</v>
+        <v>0.008659675768291958</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05334507597519778</v>
+        <v>0.05392145792184737</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1109,19 +1109,19 @@
         <v>1564</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4853</v>
+        <v>4396</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.03323270610157993</v>
+        <v>0.03323270610157992</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008866729351174819</v>
+        <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1031475816067717</v>
+        <v>0.09343611987484549</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1130,19 +1130,19 @@
         <v>5795</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2685</v>
+        <v>2479</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11446</v>
+        <v>11218</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02596571569644451</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01202894037070017</v>
+        <v>0.01110892938414361</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05128579535175253</v>
+        <v>0.05026702750495058</v>
       </c>
     </row>
     <row r="10">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3237</v>
+        <v>2968</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003243809056368029</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01838101575135454</v>
+        <v>0.01685349262042436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3509</v>
+        <v>3074</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002559909272343506</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0157222046897121</v>
+        <v>0.0137738491681683</v>
       </c>
     </row>
     <row r="11">
@@ -1226,19 +1226,19 @@
         <v>2993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7901</v>
+        <v>7470</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00900267320172813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002450058655584308</v>
+        <v>0.002423206584710321</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02376228011398717</v>
+        <v>0.02246629932382178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1247,19 +1247,19 @@
         <v>2384</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5539</v>
+        <v>5645</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01073247854138777</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002752765663838061</v>
+        <v>0.002800072256508319</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02493751330682352</v>
+        <v>0.02541431414786425</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1268,19 +1268,19 @@
         <v>5377</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2238</v>
+        <v>2294</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11229</v>
+        <v>10547</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.009695462228605714</v>
+        <v>0.009695462228605716</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004035823031899827</v>
+        <v>0.00413650632092396</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0202467282969307</v>
+        <v>0.0190168440749741</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>16192</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9798</v>
+        <v>9209</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27970</v>
+        <v>26644</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04869981825134529</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02946953148906789</v>
+        <v>0.02769613428114084</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08412379482176569</v>
+        <v>0.08013478927925678</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -1318,19 +1318,19 @@
         <v>7823</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4153</v>
+        <v>4050</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13653</v>
+        <v>13796</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03522020347896061</v>
+        <v>0.0352202034789606</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01869616998868327</v>
+        <v>0.01823223469495265</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06146781970428829</v>
+        <v>0.06210932368734561</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -1339,19 +1339,19 @@
         <v>24015</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16433</v>
+        <v>16473</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34497</v>
+        <v>34915</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04330121704071277</v>
+        <v>0.04330121704071278</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02963019219714348</v>
+        <v>0.02970136709133614</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06220035236843168</v>
+        <v>0.06295399406016905</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>3563</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1094</v>
+        <v>951</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8248</v>
+        <v>8922</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01071728203879194</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003289865303225153</v>
+        <v>0.002860385648118514</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02480809837715203</v>
+        <v>0.02683406709880611</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1389,19 +1389,19 @@
         <v>2439</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6602</v>
+        <v>6187</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01098206287615237</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002795313850503541</v>
+        <v>0.002812182396084629</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02972252551066413</v>
+        <v>0.02785282337324463</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1410,19 +1410,19 @@
         <v>6003</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2321</v>
+        <v>2537</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11266</v>
+        <v>11615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01082332706851006</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004185486349543415</v>
+        <v>0.004574905157947107</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0203133398317517</v>
+        <v>0.02094282501493343</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>3394</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>932</v>
+        <v>780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8550</v>
+        <v>7737</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01020726792135932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002803720937628492</v>
+        <v>0.002344561439111213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02571448815434332</v>
+        <v>0.02326910510613973</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1460,19 +1460,19 @@
         <v>7015</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3562</v>
+        <v>3607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12023</v>
+        <v>12549</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03157943243120086</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01603811819683402</v>
+        <v>0.01623769310261199</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05412837164137749</v>
+        <v>0.05649693535751008</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1481,19 +1481,19 @@
         <v>10408</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6085</v>
+        <v>6076</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17242</v>
+        <v>17766</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01876684437402198</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01097214329661429</v>
+        <v>0.01095493071460084</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03108922572570248</v>
+        <v>0.0320328660125657</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>300741</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>286750</v>
+        <v>288060</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>310327</v>
+        <v>310092</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9045101342166388</v>
+        <v>0.904510134216639</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8624315524491936</v>
+        <v>0.8663729292415484</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9333412493198945</v>
+        <v>0.9326341779211581</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>277</v>
@@ -1531,19 +1531,19 @@
         <v>201368</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>193244</v>
+        <v>192971</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>207308</v>
+        <v>207522</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.9065611169362287</v>
+        <v>0.9065611169362285</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8699872487975787</v>
+        <v>0.8687578743356423</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9333046459886766</v>
+        <v>0.9342650039746226</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>605</v>
@@ -1552,19 +1552,19 @@
         <v>502109</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>488322</v>
+        <v>489191</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>513775</v>
+        <v>515108</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.9053315551533593</v>
+        <v>0.9053315551533594</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8804730350664901</v>
+        <v>0.8820410216690261</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9263660101495705</v>
+        <v>0.9287706216520328</v>
       </c>
     </row>
     <row r="16">
@@ -1581,19 +1581,19 @@
         <v>6514</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2693</v>
+        <v>2266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14403</v>
+        <v>13580</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.019591812920187</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008100095068931251</v>
+        <v>0.006816585198166243</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04331953376552908</v>
+        <v>0.04084481125254913</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1602,19 +1602,19 @@
         <v>6713</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2942</v>
+        <v>3259</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13444</v>
+        <v>13978</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03022341221384904</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01324590074805808</v>
+        <v>0.01467230675179035</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06052554514799942</v>
+        <v>0.06292724528936919</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1623,19 +1623,19 @@
         <v>13227</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7504</v>
+        <v>7155</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21716</v>
+        <v>22266</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02384978065790816</v>
+        <v>0.02384978065790817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01353045593212167</v>
+        <v>0.01290164918500857</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03915566123562238</v>
+        <v>0.04014703301987626</v>
       </c>
     </row>
     <row r="17">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5211</v>
+        <v>5772</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005136122174933309</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01567133345979249</v>
+        <v>0.01735898475941616</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1689,16 +1689,16 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6791</v>
+        <v>6185</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.003079099340100018</v>
+        <v>0.003079099340100019</v>
       </c>
       <c r="V17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01224498442455962</v>
+        <v>0.01115116631994469</v>
       </c>
     </row>
     <row r="18">
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3398</v>
+        <v>2964</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003948505621078877</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02285429639200346</v>
+        <v>0.01993774304577095</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1740,19 +1740,19 @@
         <v>3097</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8175</v>
+        <v>7459</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.0323940611339139</v>
+        <v>0.03239406113391391</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00745789268161495</v>
+        <v>0.007529712674039504</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08551944510271264</v>
+        <v>0.07803382642528153</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1761,19 +1761,19 @@
         <v>3684</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>8749</v>
+        <v>8711</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01507968931002826</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.005231029966474395</v>
+        <v>0.005204934100566214</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03581424364670485</v>
+        <v>0.03566070680586008</v>
       </c>
     </row>
     <row r="19">
@@ -1790,19 +1790,19 @@
         <v>5203</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1829</v>
+        <v>1982</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10765</v>
+        <v>11728</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03499007670810499</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01229951355896526</v>
+        <v>0.01332714330595803</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0723974992395465</v>
+        <v>0.07887574071060487</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4790</v>
+        <v>4493</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01459198398672496</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0501102376300953</v>
+        <v>0.04700016819607766</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1832,19 +1832,19 @@
         <v>6597</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2817</v>
+        <v>2632</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12910</v>
+        <v>12880</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02700798907112942</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01153035797222713</v>
+        <v>0.01077324933659995</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05284854504417738</v>
+        <v>0.05272838849874052</v>
       </c>
     </row>
     <row r="20">
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3508</v>
+        <v>3564</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004646777755169452</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02359205533139138</v>
+        <v>0.02396850858354182</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1882,19 +1882,19 @@
         <v>4007</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1788</v>
+        <v>1495</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7914</v>
+        <v>8256</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.04192264784456376</v>
+        <v>0.04192264784456377</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01870422171365628</v>
+        <v>0.01564433502287368</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0827925697198509</v>
+        <v>0.08637025981314826</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1903,19 +1903,19 @@
         <v>4698</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1988</v>
+        <v>2124</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9858</v>
+        <v>9720</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01923339944878491</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008136777393713485</v>
+        <v>0.008693602488554488</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0403556519498228</v>
+        <v>0.0397893073665174</v>
       </c>
     </row>
     <row r="21">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4279</v>
+        <v>4642</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00925749840201933</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02877611216282646</v>
+        <v>0.03121691739074983</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1953,19 +1953,19 @@
         <v>3443</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>736</v>
+        <v>1352</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7389</v>
+        <v>7520</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03601469088509056</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007704204598535177</v>
+        <v>0.01414323012035995</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07730489096678321</v>
+        <v>0.07866765658244598</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1974,19 +1974,19 @@
         <v>4819</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2053</v>
+        <v>2041</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9113</v>
+        <v>9633</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01972799965116007</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008402649609714236</v>
+        <v>0.008355298403358137</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03730693789167844</v>
+        <v>0.0394327066182872</v>
       </c>
     </row>
     <row r="22">
@@ -2003,19 +2003,19 @@
         <v>127826</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>117388</v>
+        <v>116880</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136168</v>
+        <v>135938</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.859699852513909</v>
+        <v>0.8596998525139089</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7894995386499916</v>
+        <v>0.7860808942772376</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9158030303332838</v>
+        <v>0.914255794200315</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>123</v>
@@ -2024,19 +2024,19 @@
         <v>84028</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78274</v>
+        <v>77496</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>88660</v>
+        <v>88424</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8790514892140278</v>
+        <v>0.8790514892140276</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.818863222103011</v>
+        <v>0.8107219641020074</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9275130079981375</v>
+        <v>0.9250389340215076</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>266</v>
@@ -2045,19 +2045,19 @@
         <v>211855</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>199931</v>
+        <v>199446</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>221585</v>
+        <v>221201</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8672724458033471</v>
+        <v>0.8672724458033472</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.818459162008592</v>
+        <v>0.8164751183173895</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.907105600258071</v>
+        <v>0.9055334066295125</v>
       </c>
     </row>
     <row r="23">
@@ -2074,19 +2074,19 @@
         <v>13684</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7286</v>
+        <v>6559</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24546</v>
+        <v>23041</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09203531965856858</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04900251550649825</v>
+        <v>0.04411564830319946</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1650861424311681</v>
+        <v>0.1549632973410393</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2095,19 +2095,19 @@
         <v>2667</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6389</v>
+        <v>6383</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.02790328005808395</v>
+        <v>0.02790328005808396</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00707193923228771</v>
+        <v>0.007108878648785736</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0668356351231475</v>
+        <v>0.0667740133005897</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -2116,19 +2116,19 @@
         <v>16352</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9335</v>
+        <v>9427</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28181</v>
+        <v>27720</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.06693946548135399</v>
+        <v>0.066939465481354</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03821579251111436</v>
+        <v>0.03859301021223117</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1153656118444933</v>
+        <v>0.113477396738174</v>
       </c>
     </row>
     <row r="24">
@@ -2161,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2004</v>
+        <v>2250</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.004068339615090251</v>
+        <v>0.004068339615090252</v>
       </c>
       <c r="O24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02096040835790046</v>
+        <v>0.02353847893824949</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1971</v>
+        <v>1590</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001592003908806274</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.008070613359738705</v>
+        <v>0.006508641362953622</v>
       </c>
     </row>
     <row r="25">
@@ -2212,19 +2212,19 @@
         <v>4585</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1614</v>
+        <v>1821</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11188</v>
+        <v>10049</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.006975037870573314</v>
+        <v>0.006975037870573313</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002455709490368192</v>
+        <v>0.002770514300190513</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01702173083619218</v>
+        <v>0.01528847666285581</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2233,19 +2233,19 @@
         <v>6089</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3016</v>
+        <v>3036</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11545</v>
+        <v>11105</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01669287168495115</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008268887552986312</v>
+        <v>0.008323660041754596</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03164925887964219</v>
+        <v>0.03044493033477784</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2254,19 +2254,19 @@
         <v>10674</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6205</v>
+        <v>5980</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17873</v>
+        <v>17577</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01044324332400427</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006070808812080777</v>
+        <v>0.005851330996090717</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01748742538549121</v>
+        <v>0.01719783198089562</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>27705</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18750</v>
+        <v>18196</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40459</v>
+        <v>39020</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0421502369927401</v>
+        <v>0.04215023699274009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02852613123589618</v>
+        <v>0.02768300024650348</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06155337925894552</v>
+        <v>0.05936449643491423</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2304,19 +2304,19 @@
         <v>9888</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5396</v>
+        <v>5523</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16033</v>
+        <v>16154</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02710745726290776</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01479368796978424</v>
+        <v>0.01514129057377612</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04395454643827157</v>
+        <v>0.04428560412639843</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -2325,19 +2325,19 @@
         <v>37593</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>27253</v>
+        <v>27691</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>50359</v>
+        <v>51093</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03678160734848996</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02666466823440048</v>
+        <v>0.02709340820266626</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04927243308887769</v>
+        <v>0.04999008529318062</v>
       </c>
     </row>
     <row r="27">
@@ -2354,19 +2354,19 @@
         <v>4923</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1652</v>
+        <v>1966</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9893</v>
+        <v>10622</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.007490150802035527</v>
+        <v>0.007490150802035524</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.002513063194542089</v>
+        <v>0.002990603576735492</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01505146812109264</v>
+        <v>0.01616022088809844</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -2375,19 +2375,19 @@
         <v>7092</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3698</v>
+        <v>3549</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11857</v>
+        <v>12666</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01944384856913649</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01013752877155453</v>
+        <v>0.009728469584092918</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03250532588690318</v>
+        <v>0.03472343246829042</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>17</v>
@@ -2396,19 +2396,19 @@
         <v>12016</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>7669</v>
+        <v>7264</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>19175</v>
+        <v>18631</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01175631552314722</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.007502995604324681</v>
+        <v>0.007107092362557805</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01876073377679099</v>
+        <v>0.01822890537377284</v>
       </c>
     </row>
     <row r="28">
@@ -2425,19 +2425,19 @@
         <v>10345</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6175</v>
+        <v>5719</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15994</v>
+        <v>16738</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01573895492679634</v>
+        <v>0.01573895492679633</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009394146610019229</v>
+        <v>0.008701107388055438</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02433357263682621</v>
+        <v>0.02546521482847068</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2446,19 +2446,19 @@
         <v>10457</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6518</v>
+        <v>6143</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16367</v>
+        <v>16482</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02866823316241193</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01786805470172224</v>
+        <v>0.01684033925433375</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04487026568882147</v>
+        <v>0.04518652961330788</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>31</v>
@@ -2467,19 +2467,19 @@
         <v>20802</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14777</v>
+        <v>14466</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>28682</v>
+        <v>28430</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0203532953386836</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01445805132619293</v>
+        <v>0.01415331961045669</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02806329529648603</v>
+        <v>0.02781631625933552</v>
       </c>
     </row>
     <row r="29">
@@ -2496,19 +2496,19 @@
         <v>587732</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>570337</v>
+        <v>571162</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>602538</v>
+        <v>603443</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8941656315462466</v>
+        <v>0.8941656315462465</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.867700417245534</v>
+        <v>0.8689563399837839</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9166907649155561</v>
+        <v>0.9180669270764654</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>469</v>
@@ -2517,19 +2517,19 @@
         <v>329630</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>320103</v>
+        <v>318490</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>338031</v>
+        <v>337832</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9036797450579286</v>
+        <v>0.9036797450579288</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8775627343638501</v>
+        <v>0.8731390789249728</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9267113661188281</v>
+        <v>0.9261656644357902</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1153</v>
@@ -2538,19 +2538,19 @@
         <v>917362</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>896947</v>
+        <v>896896</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>933102</v>
+        <v>933975</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.897561131098519</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8775864607745775</v>
+        <v>0.8775370636694101</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.912960712760476</v>
+        <v>0.9138150767247132</v>
       </c>
     </row>
     <row r="30">
@@ -2567,19 +2567,19 @@
         <v>24430</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16366</v>
+        <v>14788</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38550</v>
+        <v>36437</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03716696334275996</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02489880374192877</v>
+        <v>0.02249866279846362</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05864872399018185</v>
+        <v>0.05543471887742175</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -2588,19 +2588,19 @@
         <v>10944</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6432</v>
+        <v>5922</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18399</v>
+        <v>18048</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03000357830154455</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01763406232648113</v>
+        <v>0.01623528707966979</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05043976325209983</v>
+        <v>0.04947868552054944</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -2609,19 +2609,19 @@
         <v>35374</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24561</v>
+        <v>25169</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>49158</v>
+        <v>49094</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03461041714743283</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02403050232716352</v>
+        <v>0.02462589725555404</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04809727758991682</v>
+        <v>0.0480345650998218</v>
       </c>
     </row>
     <row r="31">
@@ -2638,19 +2638,19 @@
         <v>2279</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6246</v>
+        <v>7289</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.003467241068626025</v>
+        <v>0.003467241068626024</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0008658705849982017</v>
+        <v>0.0008824675981854055</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.009503244784166323</v>
+        <v>0.01109000023627765</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2288</v>
+        <v>2227</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.00106614000947166</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.006271684126394329</v>
+        <v>0.006104831364308582</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -2680,19 +2680,19 @@
         <v>2668</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>622</v>
+        <v>960</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7672</v>
+        <v>7135</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.002610310198365905</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0006086414397130224</v>
+        <v>0.0009391483575121558</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.007506877232283295</v>
+        <v>0.006981443765092266</v>
       </c>
     </row>
     <row r="32">
